--- a/eagle/footprint_calc.xlsx
+++ b/eagle/footprint_calc.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\palis\projects\Github\ARM\simple_clock\eagle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Github\ARM\simple_clock\eagle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="sc">Sheet1!$B$2</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,17 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>module width</t>
   </si>
   <si>
-    <t>pin count</t>
-  </si>
-  <si>
-    <t>pin width</t>
-  </si>
-  <si>
     <t>left border</t>
   </si>
   <si>
@@ -78,13 +75,34 @@
   </si>
   <si>
     <t>F5463AH</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>AMS1117_50_REG</t>
+  </si>
+  <si>
+    <t>pin 1 loc</t>
+  </si>
+  <si>
+    <t>pin 2 loc</t>
+  </si>
+  <si>
+    <t>pin 3 loc</t>
+  </si>
+  <si>
+    <t>pin 4 loc</t>
+  </si>
+  <si>
+    <t>pin count (1 row)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +132,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +170,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,20 +202,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,15 +515,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <f>1000/25.4</f>
@@ -487,7 +532,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,49 +545,63 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" s="5">
+        <f>(B7-1)*2.54</f>
+        <v>10.16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <f>(B7-1)*2.54</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B8*2.54</f>
         <v>10.16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <f>4*2.54</f>
-        <v>10.16</v>
+        <f>-(B5-C7)/2</f>
+        <v>-2.42</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9*sc</f>
+        <v>-95.275590551181097</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <f>-(B5-B8)/2</f>
-        <v>-2.42</v>
+        <f>B5+B9</f>
+        <v>12.58</v>
       </c>
       <c r="C10" s="1">
-        <f>B10*B2</f>
-        <v>-95.275590551181097</v>
+        <f>B10*sc</f>
+        <v>495.2755905511811</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,189 +609,203 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <f>B5+B10</f>
-        <v>12.58</v>
+        <f>-(B6-C8)/2</f>
+        <v>-1.92</v>
       </c>
       <c r="C11" s="1">
-        <f>B11*B2</f>
-        <v>495.2755905511811</v>
+        <f>B11*sc</f>
+        <v>-75.590551181102356</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <f>-(B6-B9)/2</f>
-        <v>-1.92</v>
+        <f>B6+B11</f>
+        <v>12.08</v>
       </c>
       <c r="C12" s="1">
-        <f>B12*B2</f>
-        <v>-75.590551181102356</v>
+        <f>B12*sc</f>
+        <v>475.5905511811024</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <f>B6+B12</f>
-        <v>12.08</v>
+        <f>B9-1</f>
+        <v>-3.42</v>
       </c>
       <c r="C13" s="1">
-        <f>B13*B2</f>
-        <v>475.5905511811024</v>
+        <f>B13*sc</f>
+        <v>-134.64566929133858</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <f>B10-1</f>
-        <v>-3.42</v>
+        <f>B10+1</f>
+        <v>13.58</v>
       </c>
       <c r="C14" s="1">
-        <f>B14*B2</f>
-        <v>-134.64566929133858</v>
+        <f>B14*sc</f>
+        <v>534.64566929133855</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <f>B11+1</f>
-        <v>13.58</v>
+        <f>B11-1</f>
+        <v>-2.92</v>
       </c>
       <c r="C15" s="1">
-        <f>B15*B2</f>
-        <v>534.64566929133855</v>
+        <f>B15*sc</f>
+        <v>-114.96062992125984</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <f>B12-1</f>
-        <v>-2.92</v>
+        <f>B12+1</f>
+        <v>13.08</v>
       </c>
       <c r="C16" s="1">
-        <f>B16*B2</f>
-        <v>-114.96062992125984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <f>B16*sc</f>
+        <v>514.96062992125985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <f>B13+1</f>
-        <v>13.08</v>
-      </c>
-      <c r="C17" s="1">
-        <f>B17*B2</f>
-        <v>514.96062992125985</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50.2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>50.2</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
+        <f>(B21-1)*2.54</f>
+        <v>15.24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <f>B22*2.54</f>
+        <v>15.24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <f>(B22-1)*2.54</f>
-        <v>15.24</v>
+        <f>-(B19-C21)/2</f>
+        <v>-17.48</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23*sc</f>
+        <v>-688.18897637795283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <f>6*2.54</f>
-        <v>15.24</v>
+        <f>B19+B23</f>
+        <v>32.72</v>
+      </c>
+      <c r="C24" s="1">
+        <f>B24*sc</f>
+        <v>1288.1889763779527</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <f>-(B20-B23)/2</f>
-        <v>-17.48</v>
+        <f>-(B20-C22)/2</f>
+        <v>-1.88</v>
       </c>
       <c r="C25" s="1">
-        <f>B25*B2</f>
-        <v>-688.18897637795283</v>
+        <f>B25*sc</f>
+        <v>-74.015748031496059</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <f>B20+B25</f>
-        <v>32.72</v>
+        <v>17.12</v>
       </c>
       <c r="C26" s="1">
-        <f>B26*B2</f>
-        <v>1288.1889763779527</v>
+        <f>B26*sc</f>
+        <v>674.01574803149617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <f>-(B21-B24)/2</f>
-        <v>-1.88</v>
+        <f>B23-1</f>
+        <v>-18.48</v>
       </c>
       <c r="C27" s="1">
-        <f>B27*B2</f>
-        <v>-74.015748031496059</v>
+        <f>B27*sc</f>
+        <v>-727.55905511811022</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <f>B21+B27</f>
-        <v>17.12</v>
+        <f>B24+1</f>
+        <v>33.72</v>
       </c>
       <c r="C28" s="1">
-        <f>B28*B2</f>
-        <v>674.01574803149617</v>
+        <f>B28*sc</f>
+        <v>1327.5590551181103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,11 +814,11 @@
       </c>
       <c r="B29">
         <f>B25-1</f>
-        <v>-18.48</v>
+        <v>-2.88</v>
       </c>
       <c r="C29" s="1">
-        <f>B29*B2</f>
-        <v>-727.55905511811022</v>
+        <f>B29*sc</f>
+        <v>-113.38582677165354</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,37 +827,195 @@
       </c>
       <c r="B30">
         <f>B26+1</f>
-        <v>33.72</v>
+        <v>18.12</v>
       </c>
       <c r="C30" s="1">
-        <f>B30*B2</f>
-        <v>1327.5590551181103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <f>B27-1</f>
-        <v>-2.88</v>
-      </c>
-      <c r="C31" s="1">
-        <f>B31*B2</f>
-        <v>-113.38582677165354</v>
+        <f>B30*sc</f>
+        <v>713.38582677165357</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <f>B28+1</f>
-        <v>18.12</v>
-      </c>
-      <c r="C32" s="1">
-        <f>B32*B2</f>
-        <v>713.38582677165357</v>
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <f>(B35-1)*2.54</f>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5">
+        <f>B36*2.54</f>
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>-B33/2</f>
+        <v>-12.5</v>
+      </c>
+      <c r="C37" s="1">
+        <f>B37*sc</f>
+        <v>-492.12598425196853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <f>B33/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="C38" s="1">
+        <f>B38*sc</f>
+        <v>492.12598425196853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <f>-B34/2</f>
+        <v>-5.5</v>
+      </c>
+      <c r="C39" s="1">
+        <f>B39*sc</f>
+        <v>-216.53543307086613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <f>B34/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="C40" s="1">
+        <f>B40*sc</f>
+        <v>216.53543307086613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <f>C35/2</f>
+        <v>1.27</v>
+      </c>
+      <c r="C41">
+        <f>-C36/2</f>
+        <v>-11.43</v>
+      </c>
+      <c r="D41" s="1">
+        <f>B41*sc</f>
+        <v>50</v>
+      </c>
+      <c r="E41" s="1">
+        <f>C41*sc</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <f>-C35/2</f>
+        <v>-1.27</v>
+      </c>
+      <c r="C42">
+        <f>-C36/2</f>
+        <v>-11.43</v>
+      </c>
+      <c r="D42" s="1">
+        <f>B42*sc</f>
+        <v>-50</v>
+      </c>
+      <c r="E42" s="1">
+        <f>C42*sc</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <f>C35/2</f>
+        <v>1.27</v>
+      </c>
+      <c r="C43">
+        <f>C36/2</f>
+        <v>11.43</v>
+      </c>
+      <c r="D43" s="1">
+        <f>B43*sc</f>
+        <v>50</v>
+      </c>
+      <c r="E43" s="1">
+        <f>C43*sc</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <f>-C35/2</f>
+        <v>-1.27</v>
+      </c>
+      <c r="C44">
+        <f>C36/2</f>
+        <v>11.43</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44*sc</f>
+        <v>-50</v>
+      </c>
+      <c r="E44" s="1">
+        <f>C44*sc</f>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/eagle/footprint_calc.xlsx
+++ b/eagle/footprint_calc.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>-2.42</v>
       </c>
       <c r="C9" s="1">
-        <f>B9*sc</f>
+        <f t="shared" ref="C9:C16" si="0">B9*sc</f>
         <v>-95.275590551181097</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>12.58</v>
       </c>
       <c r="C10" s="1">
-        <f>B10*sc</f>
+        <f t="shared" si="0"/>
         <v>495.2755905511811</v>
       </c>
     </row>
@@ -613,7 +613,7 @@
         <v>-1.92</v>
       </c>
       <c r="C11" s="1">
-        <f>B11*sc</f>
+        <f t="shared" si="0"/>
         <v>-75.590551181102356</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
         <v>12.08</v>
       </c>
       <c r="C12" s="1">
-        <f>B12*sc</f>
+        <f t="shared" si="0"/>
         <v>475.5905511811024</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
         <v>-3.42</v>
       </c>
       <c r="C13" s="1">
-        <f>B13*sc</f>
+        <f t="shared" si="0"/>
         <v>-134.64566929133858</v>
       </c>
     </row>
@@ -652,7 +652,7 @@
         <v>13.58</v>
       </c>
       <c r="C14" s="1">
-        <f>B14*sc</f>
+        <f t="shared" si="0"/>
         <v>534.64566929133855</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>-2.92</v>
       </c>
       <c r="C15" s="1">
-        <f>B15*sc</f>
+        <f t="shared" si="0"/>
         <v>-114.96062992125984</v>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>13.08</v>
       </c>
       <c r="C16" s="1">
-        <f>B16*sc</f>
+        <f t="shared" si="0"/>
         <v>514.96062992125985</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
         <v>-17.48</v>
       </c>
       <c r="C23" s="1">
-        <f>B23*sc</f>
+        <f t="shared" ref="C23:C30" si="1">B23*sc</f>
         <v>-688.18897637795283</v>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>32.72</v>
       </c>
       <c r="C24" s="1">
-        <f>B24*sc</f>
+        <f t="shared" si="1"/>
         <v>1288.1889763779527</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>-1.88</v>
       </c>
       <c r="C25" s="1">
-        <f>B25*sc</f>
+        <f t="shared" si="1"/>
         <v>-74.015748031496059</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>17.12</v>
       </c>
       <c r="C26" s="1">
-        <f>B26*sc</f>
+        <f t="shared" si="1"/>
         <v>674.01574803149617</v>
       </c>
     </row>
@@ -791,7 +791,7 @@
         <v>-18.48</v>
       </c>
       <c r="C27" s="1">
-        <f>B27*sc</f>
+        <f t="shared" si="1"/>
         <v>-727.55905511811022</v>
       </c>
     </row>
@@ -804,7 +804,7 @@
         <v>33.72</v>
       </c>
       <c r="C28" s="1">
-        <f>B28*sc</f>
+        <f t="shared" si="1"/>
         <v>1327.5590551181103</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
         <v>-2.88</v>
       </c>
       <c r="C29" s="1">
-        <f>B29*sc</f>
+        <f t="shared" si="1"/>
         <v>-113.38582677165354</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>18.12</v>
       </c>
       <c r="C30" s="1">
-        <f>B30*sc</f>
+        <f t="shared" si="1"/>
         <v>713.38582677165357</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>16</v>
@@ -888,11 +888,11 @@
       </c>
       <c r="B37">
         <f>-B33/2</f>
-        <v>-12.5</v>
+        <v>-13</v>
       </c>
       <c r="C37" s="1">
         <f>B37*sc</f>
-        <v>-492.12598425196853</v>
+        <v>-511.81102362204729</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,11 +901,11 @@
       </c>
       <c r="B38">
         <f>B33/2</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1">
         <f>B38*sc</f>
-        <v>492.12598425196853</v>
+        <v>511.81102362204729</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,11 +914,11 @@
       </c>
       <c r="B39">
         <f>-B34/2</f>
-        <v>-5.5</v>
+        <v>-6</v>
       </c>
       <c r="C39" s="1">
         <f>B39*sc</f>
-        <v>-216.53543307086613</v>
+        <v>-236.22047244094489</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,11 +927,11 @@
       </c>
       <c r="B40">
         <f>B34/2</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <f>B40*sc</f>
-        <v>216.53543307086613</v>
+        <v>236.22047244094489</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,11 +947,11 @@
         <v>-11.43</v>
       </c>
       <c r="D41" s="1">
-        <f>B41*sc</f>
+        <f t="shared" ref="D41:E44" si="2">B41*sc</f>
         <v>50</v>
       </c>
       <c r="E41" s="1">
-        <f>C41*sc</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
     </row>
@@ -968,11 +968,11 @@
         <v>-11.43</v>
       </c>
       <c r="D42" s="1">
-        <f>B42*sc</f>
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="E42" s="1">
-        <f>C42*sc</f>
+        <f t="shared" si="2"/>
         <v>-450</v>
       </c>
     </row>
@@ -989,11 +989,11 @@
         <v>11.43</v>
       </c>
       <c r="D43" s="1">
-        <f>B43*sc</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E43" s="1">
-        <f>C43*sc</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
@@ -1010,11 +1010,11 @@
         <v>11.43</v>
       </c>
       <c r="D44" s="1">
-        <f>B44*sc</f>
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="E44" s="1">
-        <f>C44*sc</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
